--- a/medicine/Enfance/Kidi_Bebey/Kidi_Bebey.xlsx
+++ b/medicine/Enfance/Kidi_Bebey/Kidi_Bebey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kidi Bebey est une journaliste, éditrice et auteure française, née 1961 à Paris. De parents camerounais, elle est la fille du  musicien et écrivain camerounais Francis Bebey[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kidi Bebey est une journaliste, éditrice et auteure française, née 1961 à Paris. De parents camerounais, elle est la fille du  musicien et écrivain camerounais Francis Bebey,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de lettres modernes, elle soutient en 1991 à l'Université Lille III une thèse de doctorat intitulée La danse et ses exploitations littéraires chez les romanciers sahéliens et bantous,  puis obtient un master de management de l'édition à Sup de Co (ESCP)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de lettres modernes, elle soutient en 1991 à l'Université Lille III une thèse de doctorat intitulée La danse et ses exploitations littéraires chez les romanciers sahéliens et bantous,  puis obtient un master de management de l'édition à Sup de Co (ESCP).
 Kidi Bebey est la rédactrice en chef de Planète Jeunes puis de Planète Enfants en 1993[réf. nécessaire].
-Son premier album Pourquoi je ne suis pas sur la photo ?[3], illustré par Christian Kingue Epanya, est publié en 1999.
-De 2006 à 2009, elle produit et anime sur Radio France internationale l'émission quotidienne Reines d’Afrique[4], puis enchaîne avec la chronique L'Afrique des femmes diffusée chaque matin sur France Culture. De plus, elle anime un court métrage Cherche homme courageux en 2006. Depuis 2009, elle se consacre beaucoup plus à l'écriture, au journalisme, à l'édition et tient un blog nommé  XTRAFRICA[5].
-En 2016, elle publie son premier roman « largement autobiographique[3] », Mon royaume pour une guitare, inspiré de l'histoire familiale[6], autour de son père Francis Bebey[2].
+Son premier album Pourquoi je ne suis pas sur la photo ?, illustré par Christian Kingue Epanya, est publié en 1999.
+De 2006 à 2009, elle produit et anime sur Radio France internationale l'émission quotidienne Reines d’Afrique, puis enchaîne avec la chronique L'Afrique des femmes diffusée chaque matin sur France Culture. De plus, elle anime un court métrage Cherche homme courageux en 2006. Depuis 2009, elle se consacre beaucoup plus à l'écriture, au journalisme, à l'édition et tient un blog nommé  XTRAFRICA.
+En 2016, elle publie son premier roman « largement autobiographique », Mon royaume pour une guitare, inspiré de l'histoire familiale, autour de son père Francis Bebey.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pourquoi je ne suis pas sur la photo ?, illustrations de Christian Kingue Epanya, coédition Edicef et Éd. Clé, 1999
 Kidi Bebey, La grande fête des vampires, PKJ, coll. « Chica vampiro », 2016 (ISBN 978-2-266-26870-7)
- Mon royaume pour une guitare[2], Michel Lafon, 2016</t>
+ Mon royaume pour une guitare, Michel Lafon, 2016</t>
         </is>
       </c>
     </row>
